--- a/Data/System Information/SystemAccount.xlsx
+++ b/Data/System Information/SystemAccount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009841BC-CEE1-4862-8F43-BB7F92AE63C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201641BF-8AAF-4D2A-BA12-C43B6A75A42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -54,22 +54,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>上海美聚医疗科技发展有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>eTax程序</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>913101175665838000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>YjE4NDQ5MTM=</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -81,163 +65,55 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉启研综合门诊部有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://etax.hubei.chinatax.gov.cn/portal/</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91420103MA4K3YC599</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODg4ODg4ODg=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉市汉德瑞美容有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91420106555044592C</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>上海美丽田园美容发展有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>9131010113454613XK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2VlZDVkNDg=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉依江畔美容有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>914201060819562000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉梦泽境如美容有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91420103572010263D</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉依江田园美容有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91420102551952235C</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>上海秀可儿门诊部有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91310101MA1FP95U0T</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>YmQyMmY4NWE=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉美丽田园职业培训学校有限责任公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>91420102MA49KKX49W</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nzc3Nzc3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉美聚美容发展有限公司</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>914201035818351000</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>武汉美丽田园职业培训学校有限责任公司2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌克兰</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTIzNDU=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>KKKK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>XXXX科技发展有限公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxxx.com</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +293,14 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -738,7 +622,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -866,8 +750,9 @@
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -887,8 +772,11 @@
     <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="17" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="20" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="23" builtinId="38" customBuiltin="1"/>
@@ -915,6 +803,7 @@
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="15" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="10" builtinId="22" customBuiltin="1"/>
@@ -1212,7 +1101,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1111,7 @@
     <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1254,253 +1143,133 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1675,7 +1444,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B7B0A43F-3140-45AB-BB2F-0D9B994AC497}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>